--- a/202503月打卡（3.17-3.23) .xlsx
+++ b/202503月打卡（3.17-3.23) .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
   <si>
     <t>Carol</t>
   </si>
@@ -442,6 +442,15 @@
     <t>音阶+《299》10条1-8小节100。10:15-11:25</t>
   </si>
   <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>入群编号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
     <t>2025/3/17</t>
   </si>
   <si>
@@ -482,12 +491,6 @@
   </si>
   <si>
     <t>星期日</t>
-  </si>
-  <si>
-    <t>入群编号</t>
-  </si>
-  <si>
-    <t>姓名</t>
   </si>
   <si>
     <t>总时长（分钟）</t>
@@ -857,68 +860,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="19" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" customHeight="1">
+    <row r="1" spans="1:21" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
         <v>159</v>
       </c>
@@ -928,2273 +932,2274 @@
       <c r="T1" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="20" customHeight="1">
+      <c r="U1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="20" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3">
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3">
         <v>143</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>360</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>86</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>360</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>105</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>300</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>122</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>1110</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>18.5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
+    <row r="4" spans="1:21">
+      <c r="B4">
         <v>189</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>270</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>300</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>240</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>106</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>120</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>930</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>15.5</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5">
+    <row r="5" spans="1:21">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>215</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>67</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>210</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>67</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>240</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>67</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>260</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>123</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>925</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>15.42</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
+    <row r="6" spans="1:21">
+      <c r="B6">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>150</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>120</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>68</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>240</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>68</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>270</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>68</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>780</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>13</v>
-      </c>
-      <c r="S6">
-        <v>4</v>
       </c>
       <c r="T6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7">
         <v>186</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>600</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>124</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>600</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>10</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
+    <row r="8" spans="1:21">
+      <c r="B8">
         <v>101</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>195</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>120</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>145</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>120</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>580</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>9.67</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
+    <row r="9" spans="1:21">
+      <c r="B9">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>360</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>88</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>180</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>125</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>540</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>9</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
+    <row r="10" spans="1:21">
+      <c r="B10">
         <v>109</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>150</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>180</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>65</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>180</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>65</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>510</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>8.5</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
+    <row r="11" spans="1:21">
+      <c r="B11">
         <v>207</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>150</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>69</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>120</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>120</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>107</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>120</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>126</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>510</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>8.5</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>4</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
+    <row r="12" spans="1:21">
+      <c r="B12">
         <v>136</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>180</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>90</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>89</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>120</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>108</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>90</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>127</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>480</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>8</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
+    <row r="13" spans="1:21">
+      <c r="B13">
         <v>161</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>240</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>90</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>200</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>109</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>440</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7.33</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
+    <row r="14" spans="1:21">
+      <c r="B14">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>140</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>65</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>130</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>65</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>140</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>65</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>410</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>6.83</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
+    <row r="15" spans="1:21">
+      <c r="B15">
         <v>196</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>120</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>71</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>71</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>60</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>65</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>100</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>128</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>370</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>6.17</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>4</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
+    <row r="16" spans="1:21">
+      <c r="B16">
         <v>171</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>120</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>60</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>60</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>110</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>90</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>129</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>330</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>5.5</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>4</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17">
+    <row r="17" spans="2:21">
+      <c r="B17">
         <v>122</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>65</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>65</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>120</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>65</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>60</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>130</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>310</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>5.17</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>4</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18">
+    <row r="18" spans="2:21">
+      <c r="B18">
         <v>159</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>120</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>111</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>120</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>131</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>240</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19">
+    <row r="19" spans="2:21">
+      <c r="B19">
         <v>187</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>240</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>132</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>240</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>4</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20">
+    <row r="20" spans="2:21">
+      <c r="B20">
         <v>160</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>100</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>92</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>100</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>133</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>200</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>3.33</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21">
+    <row r="21" spans="2:21">
+      <c r="B21">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>73</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>50</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>93</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>60</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>112</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>50</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>134</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>190</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3.17</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22">
+    <row r="22" spans="2:21">
+      <c r="B22">
         <v>140</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>70</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>94</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>40</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>113</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>20</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>135</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>190</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>3.17</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>4</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23">
+    <row r="23" spans="2:21">
+      <c r="B23">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>60</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>95</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>60</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>108</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>180</v>
-      </c>
-      <c r="R23">
-        <v>3</v>
       </c>
       <c r="S23">
         <v>3</v>
       </c>
       <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24">
+    <row r="24" spans="2:21">
+      <c r="B24">
         <v>169</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>180</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>96</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>180</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25">
+    <row r="25" spans="2:21">
+      <c r="B25">
         <v>188</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>90</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>90</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>114</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>180</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>3</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26">
+    <row r="26" spans="2:21">
+      <c r="B26">
         <v>208</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>60</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>97</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>60</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>108</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>60</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>136</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>180</v>
-      </c>
-      <c r="R26">
-        <v>3</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
       <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27">
+    <row r="27" spans="2:21">
+      <c r="B27">
         <v>71</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>60</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>98</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>50</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>77</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>170</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.83</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28">
+    <row r="28" spans="2:21">
+      <c r="B28">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>78</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>60</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>99</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>60</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>99</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>160</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2.67</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29">
+    <row r="29" spans="2:21">
+      <c r="B29">
         <v>128</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>65</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>90</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>115</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>160</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.67</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30">
+    <row r="30" spans="2:21">
+      <c r="B30">
         <v>129</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>27</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>50</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>116</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>100</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>137</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>150</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.5</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31">
+    <row r="31" spans="2:21">
+      <c r="B31">
         <v>215</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>56</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>79</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>75</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>65</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>15</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>117</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>146</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2.43</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32">
+    <row r="32" spans="2:21">
+      <c r="B32">
         <v>150</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>65</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>90</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>138</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <v>120</v>
-      </c>
-      <c r="R32">
-        <v>2</v>
       </c>
       <c r="S32">
         <v>2</v>
       </c>
       <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33">
+    <row r="33" spans="2:21">
+      <c r="B33">
         <v>157</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>60</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>80</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>60</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>80</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>120</v>
-      </c>
-      <c r="R33">
-        <v>2</v>
       </c>
       <c r="S33">
         <v>2</v>
       </c>
       <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
-      <c r="A34">
+    <row r="34" spans="2:21">
+      <c r="B34">
         <v>170</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>120</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>118</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <v>120</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>2</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>1</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35">
+    <row r="35" spans="2:21">
+      <c r="B35">
         <v>198</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>32</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>55</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>81</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>60</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>119</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <v>115</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1.92</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36">
+    <row r="36" spans="2:21">
+      <c r="B36">
         <v>175</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>33</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>55</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>82</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>40</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>100</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="R36">
         <v>95</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>1.58</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
-      <c r="A37">
+    <row r="37" spans="2:21">
+      <c r="B37">
         <v>124</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>34</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>60</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>120</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>30</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>139</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>90</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>1.5</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38">
+    <row r="38" spans="2:21">
+      <c r="B38">
         <v>168</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>45</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>83</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>45</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>65</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="R38">
         <v>90</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>1.5</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>2</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39">
+    <row r="39" spans="2:21">
+      <c r="B39">
         <v>210</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>36</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>60</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>84</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="I39">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>30</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>140</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="R39">
         <v>90</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>1.5</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>2</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40">
+    <row r="40" spans="2:21">
+      <c r="B40">
         <v>20</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>37</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>70</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>141</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="R40">
         <v>70</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>1.17</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>1</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41">
+    <row r="41" spans="2:21">
+      <c r="B41">
         <v>91</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>45</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>101</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="R41">
         <v>45</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>0.75</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>1</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
-      <c r="A42">
+    <row r="42" spans="2:21">
+      <c r="B42">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>39</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="E42">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>40</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>102</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="R42">
         <v>40</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>0.67</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>1</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43">
+    <row r="43" spans="2:21">
+      <c r="B43">
         <v>154</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>40</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>121</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="R43">
         <v>40</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>0.67</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>1</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
-      <c r="A44">
+    <row r="44" spans="2:21">
+      <c r="B44">
         <v>3</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>41</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>30</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>103</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="R44">
         <v>30</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>0.5</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>1</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
-      <c r="A45">
+    <row r="45" spans="2:21">
+      <c r="B45">
         <v>184</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>42</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>30</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <v>30</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>0.5</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>1</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
-      <c r="A46">
+    <row r="46" spans="2:21">
+      <c r="B46">
         <v>206</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>43</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>30</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>104</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="R46">
         <v>30</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>0.5</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>1</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47">
+    <row r="47" spans="2:21">
+      <c r="B47">
         <v>213</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>44</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>30</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>85</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="R47">
         <v>30</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>0.5</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>1</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48">
+    <row r="48" spans="2:21">
+      <c r="B48">
         <v>152</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>45</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>10</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>65</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="R48">
         <v>10</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>0.17</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>1</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
-      <c r="A49">
+    <row r="49" spans="2:21">
+      <c r="B49">
         <v>4</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>46</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="P49">
         <v>0</v>
       </c>
       <c r="R49">
@@ -3204,38 +3209,38 @@
         <v>0</v>
       </c>
       <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
-      <c r="A50">
+    <row r="50" spans="2:21">
+      <c r="B50">
         <v>22</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>47</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="P50">
         <v>0</v>
       </c>
       <c r="R50">
@@ -3245,38 +3250,38 @@
         <v>0</v>
       </c>
       <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
-      <c r="A51">
+    <row r="51" spans="2:21">
+      <c r="B51">
         <v>57</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>48</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>0</v>
       </c>
       <c r="R51">
@@ -3286,38 +3291,38 @@
         <v>0</v>
       </c>
       <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
-      <c r="A52">
+    <row r="52" spans="2:21">
+      <c r="B52">
         <v>60</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>49</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="P52">
         <v>0</v>
       </c>
       <c r="R52">
@@ -3327,38 +3332,38 @@
         <v>0</v>
       </c>
       <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53">
+    <row r="53" spans="2:21">
+      <c r="B53">
         <v>65</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>50</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="P53">
         <v>0</v>
       </c>
       <c r="R53">
@@ -3368,38 +3373,38 @@
         <v>0</v>
       </c>
       <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
-      <c r="A54">
+    <row r="54" spans="2:21">
+      <c r="B54">
         <v>107</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>51</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="P54">
         <v>0</v>
       </c>
       <c r="R54">
@@ -3409,38 +3414,38 @@
         <v>0</v>
       </c>
       <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
-      <c r="A55">
+    <row r="55" spans="2:21">
+      <c r="B55">
         <v>156</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>52</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="P55">
         <v>0</v>
       </c>
       <c r="R55">
@@ -3450,38 +3455,38 @@
         <v>0</v>
       </c>
       <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
-      <c r="A56">
+    <row r="56" spans="2:21">
+      <c r="B56">
         <v>172</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="P56">
         <v>0</v>
       </c>
       <c r="R56">
@@ -3491,38 +3496,38 @@
         <v>0</v>
       </c>
       <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
-      <c r="A57">
+    <row r="57" spans="2:21">
+      <c r="B57">
         <v>173</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>54</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="P57">
         <v>0</v>
       </c>
       <c r="R57">
@@ -3532,38 +3537,38 @@
         <v>0</v>
       </c>
       <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
-      <c r="A58">
+    <row r="58" spans="2:21">
+      <c r="B58">
         <v>174</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>55</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="P58">
         <v>0</v>
       </c>
       <c r="R58">
@@ -3573,38 +3578,38 @@
         <v>0</v>
       </c>
       <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
-      <c r="A59">
+    <row r="59" spans="2:21">
+      <c r="B59">
         <v>190</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>56</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="P59">
         <v>0</v>
       </c>
       <c r="R59">
@@ -3614,38 +3619,38 @@
         <v>0</v>
       </c>
       <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
-      <c r="A60">
+    <row r="60" spans="2:21">
+      <c r="B60">
         <v>192</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>57</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="P60">
         <v>0</v>
       </c>
       <c r="R60">
@@ -3655,38 +3660,38 @@
         <v>0</v>
       </c>
       <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
-      <c r="A61">
+    <row r="61" spans="2:21">
+      <c r="B61">
         <v>199</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>58</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="P61">
         <v>0</v>
       </c>
       <c r="R61">
@@ -3696,38 +3701,38 @@
         <v>0</v>
       </c>
       <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
-      <c r="A62">
+    <row r="62" spans="2:21">
+      <c r="B62">
         <v>201</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>59</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="P62">
         <v>0</v>
       </c>
       <c r="R62">
@@ -3737,38 +3742,38 @@
         <v>0</v>
       </c>
       <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
-      <c r="A63">
+    <row r="63" spans="2:21">
+      <c r="B63">
         <v>202</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>60</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="P63">
         <v>0</v>
       </c>
       <c r="R63">
@@ -3778,38 +3783,38 @@
         <v>0</v>
       </c>
       <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
-      <c r="A64">
+    <row r="64" spans="2:21">
+      <c r="B64">
         <v>203</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="P64">
         <v>0</v>
       </c>
       <c r="R64">
@@ -3819,38 +3824,38 @@
         <v>0</v>
       </c>
       <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
-      <c r="A65">
+    <row r="65" spans="2:21">
+      <c r="B65">
         <v>205</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>62</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="P65">
         <v>0</v>
       </c>
       <c r="R65">
@@ -3860,38 +3865,38 @@
         <v>0</v>
       </c>
       <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
-      <c r="A66">
+    <row r="66" spans="2:21">
+      <c r="B66">
         <v>209</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>63</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="P66">
         <v>0</v>
       </c>
       <c r="R66">
@@ -3901,38 +3906,38 @@
         <v>0</v>
       </c>
       <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
-      <c r="A67">
+    <row r="67" spans="2:21">
+      <c r="B67">
         <v>216</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>64</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="P67">
         <v>0</v>
       </c>
       <c r="R67">
@@ -3942,31 +3947,35 @@
         <v>0</v>
       </c>
       <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
+  <mergeCells count="21">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
